--- a/examples/Motor_data.xlsx
+++ b/examples/Motor_data.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>NOME</t>
   </si>
@@ -73,7 +86,7 @@
     <t>Datasheet de ensaio</t>
   </si>
   <si>
-    <t>MN6007II</t>
+    <t>MN6007II320</t>
   </si>
   <si>
     <t>NÃO</t>
@@ -83,64 +96,222 @@
   </si>
   <si>
     <t>EaglePower</t>
+  </si>
+  <si>
+    <t>MN6007II170</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="#,##0.0000000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FFffe300"/>
+      <color rgb="FFFFE300"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFffff00"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFffffff"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFffffff"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,11 +320,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2d328f"/>
+        <fgColor rgb="FF2D328F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -163,16 +521,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -180,75 +553,337 @@
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -259,10 +894,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -300,71 +935,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -392,7 +1027,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -415,11 +1050,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -428,13 +1063,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -444,7 +1079,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -453,7 +1088,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -462,7 +1097,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -470,10 +1105,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -533,234 +1168,234 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" style="14" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="15.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="16" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="16" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="16" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="16" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="36.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="17" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="19.4351851851852" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.8611111111111" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1481481481481" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.1481481481481" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7222222222222" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.4351851851852" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7222222222222" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.1481481481481" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.5740740740741" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5740740740741" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5740740740741" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="15"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="6" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:11">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="9">
         <v>500</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>500</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="9">
         <v>0.035</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="9">
         <v>2.6</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="9">
         <v>80</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="9">
         <v>1500</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <v>0.306</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8"/>
+      <c r="K2" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="19.5" customHeight="1" spans="1:11">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <v>217</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>217</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <v>0.039</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="9">
         <v>1.65</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="9">
         <v>55</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="9">
         <v>1200</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="9">
         <v>0.26</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="8"/>
+      <c r="K3" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="19.5" customHeight="1" spans="1:11">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="9">
         <v>630</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>630</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="9">
         <v>0.015</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="9">
         <v>1.54</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <v>95</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="9">
         <v>1500</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="9">
         <v>0.28</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="8"/>
+      <c r="K4" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="19.5" customHeight="1" spans="1:11">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="9">
         <v>185</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>185</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>0.034</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="9">
         <v>0.88</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="9">
         <v>120</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="9">
         <v>4400</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="9">
         <v>0.691</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="16"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="9" t="s">
+    <row r="6" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>320</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>320</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>0.0475</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>1</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="11">
         <v>44.2</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="11">
         <v>1040</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>0.161</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="9" t="s">
+    <row r="7" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="12">
@@ -784,23 +1419,22 @@
       <c r="H7" s="13">
         <v>0.45</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="9" t="s">
+    <row r="8" ht="19.5" customHeight="1" spans="1:10">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="12">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C8" s="13">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D8" s="13">
         <v>0.035</v>
@@ -817,15 +1451,47 @@
       <c r="H8" s="13">
         <v>0.336</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>160</v>
+      </c>
+      <c r="C9" s="3">
+        <v>170</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.178</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>23.7</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1120</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>